--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projekte\PyCharm Projects\workshop-einteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56E854-19A9-405B-9AAA-BC4AE41BCA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B48694-3C53-443D-9E33-3FD01D0955C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3525" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,6 +473,9 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -492,6 +495,9 @@
       </c>
       <c r="B3" t="s">
         <v>20</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -617,7 +623,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projekte\PyCharm Projects\workshop-einteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B48694-3C53-443D-9E33-3FD01D0955C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B492A-0A06-41AB-8C01-FDE61CF17549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3525" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persons" sheetId="1" r:id="rId1"/>
     <sheet name="Workshops" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="229">
   <si>
     <t>ID</t>
   </si>
@@ -104,13 +115,622 @@
   </si>
   <si>
     <t>Person 7</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Person 8</t>
+  </si>
+  <si>
+    <t>Person 9</t>
+  </si>
+  <si>
+    <t>Person 10</t>
+  </si>
+  <si>
+    <t>Person 11</t>
+  </si>
+  <si>
+    <t>Person 12</t>
+  </si>
+  <si>
+    <t>Person 13</t>
+  </si>
+  <si>
+    <t>Person 14</t>
+  </si>
+  <si>
+    <t>Person 15</t>
+  </si>
+  <si>
+    <t>Person 16</t>
+  </si>
+  <si>
+    <t>Person 17</t>
+  </si>
+  <si>
+    <t>Person 18</t>
+  </si>
+  <si>
+    <t>Person 19</t>
+  </si>
+  <si>
+    <t>Person 20</t>
+  </si>
+  <si>
+    <t>Person 21</t>
+  </si>
+  <si>
+    <t>Person 22</t>
+  </si>
+  <si>
+    <t>Person 23</t>
+  </si>
+  <si>
+    <t>Person 24</t>
+  </si>
+  <si>
+    <t>Person 25</t>
+  </si>
+  <si>
+    <t>Person 26</t>
+  </si>
+  <si>
+    <t>Person 27</t>
+  </si>
+  <si>
+    <t>Person 28</t>
+  </si>
+  <si>
+    <t>Person 29</t>
+  </si>
+  <si>
+    <t>Person 30</t>
+  </si>
+  <si>
+    <t>Person 31</t>
+  </si>
+  <si>
+    <t>Person 32</t>
+  </si>
+  <si>
+    <t>Person 33</t>
+  </si>
+  <si>
+    <t>Person 34</t>
+  </si>
+  <si>
+    <t>Person 35</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Person 36</t>
+  </si>
+  <si>
+    <t>Person 37</t>
+  </si>
+  <si>
+    <t>Person 38</t>
+  </si>
+  <si>
+    <t>Person 39</t>
+  </si>
+  <si>
+    <t>Person 40</t>
+  </si>
+  <si>
+    <t>Person 41</t>
+  </si>
+  <si>
+    <t>Person 42</t>
+  </si>
+  <si>
+    <t>Person 43</t>
+  </si>
+  <si>
+    <t>Person 44</t>
+  </si>
+  <si>
+    <t>Person 45</t>
+  </si>
+  <si>
+    <t>Person 46</t>
+  </si>
+  <si>
+    <t>Person 47</t>
+  </si>
+  <si>
+    <t>Person 48</t>
+  </si>
+  <si>
+    <t>Person 49</t>
+  </si>
+  <si>
+    <t>Person 50</t>
+  </si>
+  <si>
+    <t>Person 51</t>
+  </si>
+  <si>
+    <t>Person 52</t>
+  </si>
+  <si>
+    <t>Person 53</t>
+  </si>
+  <si>
+    <t>Person 54</t>
+  </si>
+  <si>
+    <t>Person 55</t>
+  </si>
+  <si>
+    <t>Person 56</t>
+  </si>
+  <si>
+    <t>Person 57</t>
+  </si>
+  <si>
+    <t>Person 58</t>
+  </si>
+  <si>
+    <t>Person 59</t>
+  </si>
+  <si>
+    <t>Person 60</t>
+  </si>
+  <si>
+    <t>Person 61</t>
+  </si>
+  <si>
+    <t>Person 62</t>
+  </si>
+  <si>
+    <t>Person 63</t>
+  </si>
+  <si>
+    <t>Person 64</t>
+  </si>
+  <si>
+    <t>Person 65</t>
+  </si>
+  <si>
+    <t>Person 66</t>
+  </si>
+  <si>
+    <t>Person 67</t>
+  </si>
+  <si>
+    <t>Person 68</t>
+  </si>
+  <si>
+    <t>Person 69</t>
+  </si>
+  <si>
+    <t>Person 70</t>
+  </si>
+  <si>
+    <t>Person 71</t>
+  </si>
+  <si>
+    <t>Person 72</t>
+  </si>
+  <si>
+    <t>Person 73</t>
+  </si>
+  <si>
+    <t>Person 74</t>
+  </si>
+  <si>
+    <t>Person 75</t>
+  </si>
+  <si>
+    <t>Person 76</t>
+  </si>
+  <si>
+    <t>Person 77</t>
+  </si>
+  <si>
+    <t>Person 78</t>
+  </si>
+  <si>
+    <t>Person 79</t>
+  </si>
+  <si>
+    <t>Person 80</t>
+  </si>
+  <si>
+    <t>Person 81</t>
+  </si>
+  <si>
+    <t>Person 82</t>
+  </si>
+  <si>
+    <t>Person 83</t>
+  </si>
+  <si>
+    <t>Person 84</t>
+  </si>
+  <si>
+    <t>Person 85</t>
+  </si>
+  <si>
+    <t>Person 86</t>
+  </si>
+  <si>
+    <t>Person 87</t>
+  </si>
+  <si>
+    <t>Person 88</t>
+  </si>
+  <si>
+    <t>Person 89</t>
+  </si>
+  <si>
+    <t>Person 90</t>
+  </si>
+  <si>
+    <t>Person 91</t>
+  </si>
+  <si>
+    <t>Person 92</t>
+  </si>
+  <si>
+    <t>Person 93</t>
+  </si>
+  <si>
+    <t>Person 94</t>
+  </si>
+  <si>
+    <t>Person 95</t>
+  </si>
+  <si>
+    <t>Person 96</t>
+  </si>
+  <si>
+    <t>Person 97</t>
+  </si>
+  <si>
+    <t>Person 98</t>
+  </si>
+  <si>
+    <t>Person 99</t>
+  </si>
+  <si>
+    <t>Person 100</t>
+  </si>
+  <si>
+    <t>Person 101</t>
+  </si>
+  <si>
+    <t>Person 102</t>
+  </si>
+  <si>
+    <t>Person 103</t>
+  </si>
+  <si>
+    <t>Person 104</t>
+  </si>
+  <si>
+    <t>Person 105</t>
+  </si>
+  <si>
+    <t>Person 106</t>
+  </si>
+  <si>
+    <t>Person 107</t>
+  </si>
+  <si>
+    <t>Person 108</t>
+  </si>
+  <si>
+    <t>Person 109</t>
+  </si>
+  <si>
+    <t>Person 110</t>
+  </si>
+  <si>
+    <t>Person 111</t>
+  </si>
+  <si>
+    <t>Person 112</t>
+  </si>
+  <si>
+    <t>Person 113</t>
+  </si>
+  <si>
+    <t>Person 114</t>
+  </si>
+  <si>
+    <t>Person 115</t>
+  </si>
+  <si>
+    <t>Person 116</t>
+  </si>
+  <si>
+    <t>Person 117</t>
+  </si>
+  <si>
+    <t>Person 118</t>
+  </si>
+  <si>
+    <t>Person 119</t>
+  </si>
+  <si>
+    <t>Person 120</t>
+  </si>
+  <si>
+    <t>Person 121</t>
+  </si>
+  <si>
+    <t>Person 122</t>
+  </si>
+  <si>
+    <t>Person 123</t>
+  </si>
+  <si>
+    <t>Person 124</t>
+  </si>
+  <si>
+    <t>Person 125</t>
+  </si>
+  <si>
+    <t>Person 126</t>
+  </si>
+  <si>
+    <t>Person 127</t>
+  </si>
+  <si>
+    <t>Person 128</t>
+  </si>
+  <si>
+    <t>Person 129</t>
+  </si>
+  <si>
+    <t>Person 130</t>
+  </si>
+  <si>
+    <t>Person 131</t>
+  </si>
+  <si>
+    <t>Person 132</t>
+  </si>
+  <si>
+    <t>Person 133</t>
+  </si>
+  <si>
+    <t>Person 134</t>
+  </si>
+  <si>
+    <t>Person 135</t>
+  </si>
+  <si>
+    <t>Person 136</t>
+  </si>
+  <si>
+    <t>Person 137</t>
+  </si>
+  <si>
+    <t>Person 138</t>
+  </si>
+  <si>
+    <t>Person 139</t>
+  </si>
+  <si>
+    <t>Person 140</t>
+  </si>
+  <si>
+    <t>Person 141</t>
+  </si>
+  <si>
+    <t>Person 142</t>
+  </si>
+  <si>
+    <t>Person 143</t>
+  </si>
+  <si>
+    <t>Person 144</t>
+  </si>
+  <si>
+    <t>Person 145</t>
+  </si>
+  <si>
+    <t>Person 146</t>
+  </si>
+  <si>
+    <t>Person 147</t>
+  </si>
+  <si>
+    <t>Person 148</t>
+  </si>
+  <si>
+    <t>Person 149</t>
+  </si>
+  <si>
+    <t>Person 150</t>
+  </si>
+  <si>
+    <t>Person 151</t>
+  </si>
+  <si>
+    <t>Person 152</t>
+  </si>
+  <si>
+    <t>Person 153</t>
+  </si>
+  <si>
+    <t>Person 154</t>
+  </si>
+  <si>
+    <t>Person 155</t>
+  </si>
+  <si>
+    <t>Person 156</t>
+  </si>
+  <si>
+    <t>Person 157</t>
+  </si>
+  <si>
+    <t>Person 158</t>
+  </si>
+  <si>
+    <t>Person 159</t>
+  </si>
+  <si>
+    <t>Person 160</t>
+  </si>
+  <si>
+    <t>Person 161</t>
+  </si>
+  <si>
+    <t>Person 162</t>
+  </si>
+  <si>
+    <t>Person 163</t>
+  </si>
+  <si>
+    <t>Person 164</t>
+  </si>
+  <si>
+    <t>Person 165</t>
+  </si>
+  <si>
+    <t>Person 166</t>
+  </si>
+  <si>
+    <t>Person 167</t>
+  </si>
+  <si>
+    <t>Person 168</t>
+  </si>
+  <si>
+    <t>Person 169</t>
+  </si>
+  <si>
+    <t>Person 170</t>
+  </si>
+  <si>
+    <t>Person 171</t>
+  </si>
+  <si>
+    <t>Person 172</t>
+  </si>
+  <si>
+    <t>Person 173</t>
+  </si>
+  <si>
+    <t>Person 174</t>
+  </si>
+  <si>
+    <t>Person 175</t>
+  </si>
+  <si>
+    <t>Person 176</t>
+  </si>
+  <si>
+    <t>Person 177</t>
+  </si>
+  <si>
+    <t>Person 178</t>
+  </si>
+  <si>
+    <t>Person 179</t>
+  </si>
+  <si>
+    <t>Person 180</t>
+  </si>
+  <si>
+    <t>Person 181</t>
+  </si>
+  <si>
+    <t>Person 182</t>
+  </si>
+  <si>
+    <t>Person 183</t>
+  </si>
+  <si>
+    <t>Person 184</t>
+  </si>
+  <si>
+    <t>Person 185</t>
+  </si>
+  <si>
+    <t>Person 186</t>
+  </si>
+  <si>
+    <t>Person 187</t>
+  </si>
+  <si>
+    <t>Person 188</t>
+  </si>
+  <si>
+    <t>Person 189</t>
+  </si>
+  <si>
+    <t>Person 190</t>
+  </si>
+  <si>
+    <t>Person 191</t>
+  </si>
+  <si>
+    <t>Person 192</t>
+  </si>
+  <si>
+    <t>Person 193</t>
+  </si>
+  <si>
+    <t>Person 194</t>
+  </si>
+  <si>
+    <t>Person 195</t>
+  </si>
+  <si>
+    <t>fcb</t>
+  </si>
+  <si>
+    <t>Ganzstages</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Dieter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +742,18 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -142,14 +774,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{87524391-7551-4A49-9A14-C1D2D8830638}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +1076,7 @@
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +1101,12 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1">
+        <f>COUNTIF(G:G,"A2")</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,10 +1126,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -497,28 +1137,31 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -529,16 +1172,19 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
@@ -549,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -572,7 +1218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -592,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -610,6 +1256,3812 @@
       </c>
       <c r="I8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>166</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>167</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>170</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>175</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>177</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>178</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>179</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>180</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>182</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>183</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>186</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>187</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>188</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>193</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>195</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>196</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>198</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>199</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>201</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>202</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>205</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>207</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>209</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>211</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>212</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>213</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>214</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>215</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>216</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>217</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>218</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>219</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>221</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>222</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>223</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>224</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>227</v>
+      </c>
+      <c r="D197">
+        <v>197</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>228</v>
+      </c>
+      <c r="D198">
+        <v>196</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -620,15 +5072,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAEB725-620D-4AC4-9C8E-C87D1079B231}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +5097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -653,13 +5105,17 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>SUMIF(E2:E9,"a",D2:D9)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -667,13 +5123,13 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -681,38 +5137,226 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>A2 &amp; "2"</f>
+        <v>A2</v>
+      </c>
+      <c r="B10" t="str">
+        <f>B2 &amp; "2"</f>
+        <v>A2</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f>SUMIF(E10:E17,"b",D10:D17)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" ref="A11:B20" si="0">A3 &amp; "2"</f>
+        <v>B2</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>B2</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>D2</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>D2</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>E2</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>E2</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>F2</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>G2</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>G2</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>H2</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>H2</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projekte\PyCharm Projects\workshop-einteilung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65AB505-11D8-4416-B6E5-344B7DD55C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0446AA-BB91-4681-90B4-06AE2FF27D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3525" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Persons" sheetId="1" r:id="rId1"/>
     <sheet name="Workshops" sheetId="2" r:id="rId2"/>
     <sheet name="Examples" sheetId="3" r:id="rId3"/>
+    <sheet name="Backup" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="741">
   <si>
     <t>ID</t>
   </si>
@@ -2258,6 +2259,9 @@
   </si>
   <si>
     <t>Zwischen den Zeiten</t>
+  </si>
+  <si>
+    <t>Preference 1</t>
   </si>
 </sst>
 </file>
@@ -2337,29 +2341,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2644,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2672,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>740</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -2688,22 +2678,22 @@
       <c r="B2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G2" t="s">
         <v>727</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -2712,22 +2702,22 @@
       <c r="B3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G3" t="s">
         <v>727</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2736,25 +2726,25 @@
       <c r="B4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I4" t="s">
         <v>708</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K4" t="s">
         <v>721</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -2763,25 +2753,25 @@
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I5" t="s">
         <v>708</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K5" t="s">
         <v>721</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2790,25 +2780,25 @@
       <c r="B6" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I6" t="s">
         <v>708</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K6" t="s">
         <v>721</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -2817,25 +2807,25 @@
       <c r="B7" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I7" t="s">
         <v>708</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K7" t="s">
         <v>721</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -2844,25 +2834,25 @@
       <c r="B8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I8" t="s">
         <v>708</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K8" t="s">
         <v>721</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2871,25 +2861,25 @@
       <c r="B9" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I9" t="s">
         <v>708</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="3" t="s">
         <v>668</v>
       </c>
       <c r="K9" t="s">
         <v>721</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -2898,19 +2888,19 @@
       <c r="B10" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -2919,19 +2909,19 @@
       <c r="B11" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -2940,22 +2930,22 @@
       <c r="B12" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="3" t="s">
         <v>670</v>
       </c>
       <c r="G12" t="s">
         <v>731</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N12" s="19"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -2964,22 +2954,22 @@
       <c r="B13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>670</v>
       </c>
       <c r="G13" t="s">
         <v>731</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2988,28 +2978,28 @@
       <c r="B14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>688</v>
       </c>
       <c r="G14" t="s">
         <v>708</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I14" t="s">
         <v>717</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="3" t="s">
         <v>654</v>
       </c>
       <c r="K14" t="s">
         <v>727</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -3018,28 +3008,28 @@
       <c r="B15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="3" t="s">
         <v>688</v>
       </c>
       <c r="G15" t="s">
         <v>708</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I15" t="s">
         <v>717</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="3" t="s">
         <v>654</v>
       </c>
       <c r="K15" t="s">
         <v>727</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -3048,22 +3038,22 @@
       <c r="B16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="3" t="s">
         <v>678</v>
       </c>
       <c r="I16" t="s">
         <v>717</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -3072,25 +3062,25 @@
       <c r="B17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G17" t="s">
         <v>717</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="3" t="s">
         <v>670</v>
       </c>
       <c r="K17" t="s">
         <v>694</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -3099,25 +3089,25 @@
       <c r="B18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G18" t="s">
         <v>717</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="3" t="s">
         <v>670</v>
       </c>
       <c r="K18" t="s">
         <v>694</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -3126,22 +3116,22 @@
       <c r="B19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="3" t="s">
         <v>658</v>
       </c>
       <c r="K19" t="s">
         <v>694</v>
       </c>
-      <c r="N19" s="19"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -3150,22 +3140,22 @@
       <c r="B20" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="3" t="s">
         <v>666</v>
       </c>
       <c r="G20" t="s">
         <v>727</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N20" s="19"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -3174,22 +3164,22 @@
       <c r="B21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="3" t="s">
         <v>678</v>
       </c>
       <c r="G21" t="s">
         <v>727</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N21" s="19"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -3198,28 +3188,28 @@
       <c r="B22" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G22" t="s">
         <v>723</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="3" t="s">
         <v>674</v>
       </c>
       <c r="I22" t="s">
         <v>702</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="3" t="s">
         <v>688</v>
       </c>
       <c r="K22" t="s">
         <v>717</v>
       </c>
-      <c r="N22" s="19"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -3228,25 +3218,25 @@
       <c r="B23" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>670</v>
       </c>
       <c r="G23" t="s">
         <v>696</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="3" t="s">
         <v>676</v>
       </c>
       <c r="I23" t="s">
         <v>698</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N23" s="19"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -3255,28 +3245,28 @@
       <c r="B24" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G24" t="s">
         <v>723</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="3" t="s">
         <v>674</v>
       </c>
       <c r="I24" t="s">
         <v>702</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="3" t="s">
         <v>688</v>
       </c>
       <c r="K24" t="s">
         <v>717</v>
       </c>
-      <c r="N24" s="19"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -3285,28 +3275,28 @@
       <c r="B25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G25" t="s">
         <v>723</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="3" t="s">
         <v>674</v>
       </c>
       <c r="I25" t="s">
         <v>702</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="3" t="s">
         <v>688</v>
       </c>
       <c r="K25" t="s">
         <v>727</v>
       </c>
-      <c r="N25" s="19"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -3315,25 +3305,25 @@
       <c r="B26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G26" t="s">
         <v>717</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I26" t="s">
         <v>710</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="N26" s="19"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -3342,25 +3332,25 @@
       <c r="B27" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="3" t="s">
         <v>670</v>
       </c>
       <c r="G27" t="s">
         <v>696</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="3" t="s">
         <v>676</v>
       </c>
       <c r="I27" t="s">
         <v>698</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="N27" s="19"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -3369,25 +3359,25 @@
       <c r="B28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="3" t="s">
         <v>652</v>
       </c>
       <c r="G28" t="s">
         <v>717</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="3" t="s">
         <v>670</v>
       </c>
       <c r="I28" t="s">
         <v>710</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="N28" s="19"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -3396,28 +3386,28 @@
       <c r="B29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G29" t="s">
         <v>708</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="2" t="s">
         <v>654</v>
       </c>
       <c r="I29" t="s">
         <v>731</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K29" t="s">
         <v>708</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -3426,28 +3416,28 @@
       <c r="B30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G30" t="s">
         <v>708</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I30" t="s">
         <v>727</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="2" t="s">
         <v>654</v>
       </c>
       <c r="K30" t="s">
         <v>717</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -3456,28 +3446,28 @@
       <c r="B31" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G31" t="s">
         <v>694</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I31" t="s">
         <v>694</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K31" t="s">
         <v>717</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3486,28 +3476,28 @@
       <c r="B32" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G32" t="s">
         <v>708</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I32" t="s">
         <v>727</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="2" t="s">
         <v>654</v>
       </c>
       <c r="K32" t="s">
         <v>717</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -3516,25 +3506,25 @@
       <c r="B33" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="2" t="s">
         <v>654</v>
       </c>
       <c r="I33" t="s">
         <v>708</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K33" t="s">
         <v>708</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -3543,22 +3533,22 @@
       <c r="B34" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="2" t="s">
         <v>654</v>
       </c>
       <c r="I34" t="s">
         <v>700</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -3567,28 +3557,28 @@
       <c r="B35" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G35" t="s">
         <v>708</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="2" t="s">
         <v>654</v>
       </c>
       <c r="I35" t="s">
         <v>731</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K35" t="s">
         <v>708</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -3597,22 +3587,22 @@
       <c r="B36" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K36" t="s">
         <v>721</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -3621,28 +3611,28 @@
       <c r="B37" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I37" t="s">
         <v>694</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K37" t="s">
         <v>717</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -3651,28 +3641,28 @@
       <c r="B38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="2" t="s">
         <v>654</v>
       </c>
       <c r="I38" t="s">
         <v>731</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K38" t="s">
         <v>708</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -3681,28 +3671,28 @@
       <c r="B39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I39" t="s">
         <v>727</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="2" t="s">
         <v>654</v>
       </c>
       <c r="K39" t="s">
         <v>717</v>
       </c>
-      <c r="N39" s="17"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -3711,26 +3701,26 @@
       <c r="B40" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="2" t="s">
         <v>688</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="2" t="s">
         <v>682</v>
       </c>
       <c r="K40" t="s">
         <v>708</v>
       </c>
-      <c r="N40" s="17"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -3739,26 +3729,26 @@
       <c r="B41" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K41" t="s">
         <v>717</v>
       </c>
-      <c r="N41" s="17"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -3767,26 +3757,26 @@
       <c r="B42" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K42" t="s">
         <v>717</v>
       </c>
-      <c r="N42" s="17"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -3795,26 +3785,26 @@
       <c r="B43" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="2" t="s">
         <v>666</v>
       </c>
       <c r="K43" t="s">
         <v>704</v>
       </c>
-      <c r="N43" s="17"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -3823,26 +3813,26 @@
       <c r="B44" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="2" t="s">
         <v>666</v>
       </c>
       <c r="K44" t="s">
         <v>704</v>
       </c>
-      <c r="N44" s="17"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -3851,28 +3841,28 @@
       <c r="B45" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="2" t="s">
         <v>656</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I45" t="s">
         <v>704</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K45" t="s">
         <v>698</v>
       </c>
-      <c r="N45" s="17"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -3881,28 +3871,28 @@
       <c r="B46" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="2" t="s">
         <v>656</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I46" t="s">
         <v>704</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K46" t="s">
         <v>698</v>
       </c>
-      <c r="N46" s="17"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -3911,21 +3901,21 @@
       <c r="B47" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="2" t="s">
         <v>646</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N47" s="17"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -3934,24 +3924,24 @@
       <c r="B48" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="2" t="s">
         <v>646</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="2" t="s">
         <v>682</v>
       </c>
       <c r="K48" t="s">
         <v>731</v>
       </c>
-      <c r="N48" s="17"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -3960,28 +3950,28 @@
       <c r="B49" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="2" t="s">
         <v>656</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I49" t="s">
         <v>704</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K49" t="s">
         <v>698</v>
       </c>
-      <c r="N49" s="17"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -3990,24 +3980,24 @@
       <c r="B50" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="2" t="s">
         <v>646</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="2" t="s">
         <v>682</v>
       </c>
       <c r="K50" t="s">
         <v>731</v>
       </c>
-      <c r="N50" s="17"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -4016,28 +4006,28 @@
       <c r="B51" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I51" t="s">
         <v>723</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="2" t="s">
         <v>666</v>
       </c>
       <c r="K51" t="s">
         <v>727</v>
       </c>
-      <c r="N51" s="17"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -4046,26 +4036,26 @@
       <c r="B52" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I52" s="1"/>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="2" t="s">
         <v>666</v>
       </c>
       <c r="K52" t="s">
         <v>717</v>
       </c>
-      <c r="N52" s="17"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -4074,24 +4064,24 @@
       <c r="B53" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G53" s="1"/>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K53" t="s">
         <v>698</v>
       </c>
-      <c r="N53" s="17"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -4100,28 +4090,28 @@
       <c r="B54" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="2" t="s">
         <v>690</v>
       </c>
       <c r="I54" t="s">
         <v>719</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K54" t="s">
         <v>708</v>
       </c>
-      <c r="N54" s="17"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -4130,28 +4120,28 @@
       <c r="B55" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="2" t="s">
         <v>690</v>
       </c>
       <c r="I55" t="s">
         <v>719</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K55" t="s">
         <v>708</v>
       </c>
-      <c r="N55" s="17"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -4160,28 +4150,28 @@
       <c r="B56" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="2" t="s">
         <v>690</v>
       </c>
       <c r="I56" t="s">
         <v>719</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K56" t="s">
         <v>708</v>
       </c>
-      <c r="N56" s="17"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -4190,28 +4180,28 @@
       <c r="B57" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I57" t="s">
         <v>708</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K57" t="s">
         <v>706</v>
       </c>
-      <c r="N57" s="17"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -4220,28 +4210,28 @@
       <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I58" t="s">
         <v>708</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K58" t="s">
         <v>706</v>
       </c>
-      <c r="N58" s="17"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
@@ -4250,28 +4240,28 @@
       <c r="B59" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I59" t="s">
         <v>708</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K59" t="s">
         <v>706</v>
       </c>
-      <c r="N59" s="17"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
@@ -4280,28 +4270,28 @@
       <c r="B60" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I60" t="s">
         <v>708</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K60" t="s">
         <v>706</v>
       </c>
-      <c r="N60" s="17"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -4310,25 +4300,25 @@
       <c r="B61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="2" t="s">
         <v>690</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I61" t="s">
         <v>696</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N61" s="17"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
@@ -4337,26 +4327,26 @@
       <c r="B62" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K62" t="s">
         <v>727</v>
       </c>
-      <c r="N62" s="17"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -4365,26 +4355,26 @@
       <c r="B63" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K63" t="s">
         <v>727</v>
       </c>
-      <c r="N63" s="17"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
@@ -4393,26 +4383,26 @@
       <c r="B64" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K64" t="s">
         <v>723</v>
       </c>
-      <c r="N64" s="17"/>
+      <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -4421,26 +4411,26 @@
       <c r="B65" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K65" t="s">
         <v>723</v>
       </c>
-      <c r="N65" s="17"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -4449,26 +4439,26 @@
       <c r="B66" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K66" t="s">
         <v>723</v>
       </c>
-      <c r="N66" s="17"/>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -4477,26 +4467,26 @@
       <c r="B67" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="2" t="s">
         <v>648</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K67" t="s">
         <v>723</v>
       </c>
-      <c r="N67" s="17"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -4505,25 +4495,25 @@
       <c r="B68" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="2" t="s">
         <v>692</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I68" t="s">
         <v>700</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N68" s="17"/>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
@@ -4532,21 +4522,21 @@
       <c r="B69" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N69" s="17"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
@@ -4555,21 +4545,21 @@
       <c r="B70" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N70" s="17"/>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -4578,25 +4568,25 @@
       <c r="B71" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I71" t="s">
         <v>712</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N71" s="17"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
@@ -4605,23 +4595,23 @@
       <c r="B72" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G72" s="1"/>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I72" t="s">
         <v>721</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J72" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N72" s="17"/>
+      <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
@@ -4630,23 +4620,23 @@
       <c r="B73" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G73" s="1"/>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I73" t="s">
         <v>721</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="J73" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N73" s="17"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
@@ -4655,25 +4645,25 @@
       <c r="B74" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="2" t="s">
         <v>690</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I74" t="s">
         <v>721</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="N74" s="17"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -4682,25 +4672,25 @@
       <c r="B75" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I75" t="s">
         <v>708</v>
       </c>
-      <c r="J75" s="10" t="s">
+      <c r="J75" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N75" s="17"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -4709,25 +4699,25 @@
       <c r="B76" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I76" t="s">
         <v>708</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N76" s="17"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
@@ -4736,25 +4726,25 @@
       <c r="B77" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I77" t="s">
         <v>708</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N77" s="17"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -4763,23 +4753,23 @@
       <c r="B78" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="10" t="s">
+      <c r="J78" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N78" s="17"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -4788,23 +4778,23 @@
       <c r="B79" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="10" t="s">
+      <c r="J79" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N79" s="17"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
@@ -4813,23 +4803,23 @@
       <c r="B80" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N80" s="17"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
@@ -4838,23 +4828,23 @@
       <c r="B81" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I81" t="s">
         <v>721</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N81" s="17"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
@@ -4863,23 +4853,23 @@
       <c r="B82" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I82" t="s">
         <v>721</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N82" s="17"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
@@ -4888,23 +4878,23 @@
       <c r="B83" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G83" s="1"/>
-      <c r="H83" s="8" t="s">
+      <c r="H83" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I83" t="s">
         <v>721</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N83" s="17"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
@@ -4913,26 +4903,26 @@
       <c r="B84" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="2" t="s">
         <v>646</v>
       </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I84" t="s">
         <v>712</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J84" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K84" t="s">
         <v>708</v>
       </c>
-      <c r="N84" s="17"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
@@ -4941,24 +4931,24 @@
       <c r="B85" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="2" t="s">
         <v>646</v>
       </c>
       <c r="I85" s="1"/>
-      <c r="J85" s="10" t="s">
+      <c r="J85" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K85" t="s">
         <v>721</v>
       </c>
-      <c r="N85" s="17"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
@@ -4967,23 +4957,23 @@
       <c r="B86" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G86" s="1"/>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I86" t="s">
         <v>708</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N86" s="17"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
@@ -4992,23 +4982,23 @@
       <c r="B87" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G87" s="1"/>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I87" t="s">
         <v>708</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N87" s="17"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
@@ -5017,23 +5007,23 @@
       <c r="B88" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G88" s="1"/>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I88" t="s">
         <v>708</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="J88" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N88" s="17"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -5042,23 +5032,23 @@
       <c r="B89" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G89" s="1"/>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I89" t="s">
         <v>708</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N89" s="17"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
@@ -5067,23 +5057,23 @@
       <c r="B90" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I90" t="s">
         <v>708</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="J90" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N90" s="17"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
@@ -5092,28 +5082,28 @@
       <c r="B91" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I91" t="s">
         <v>727</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J91" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K91" t="s">
         <v>721</v>
       </c>
-      <c r="N91" s="17"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
@@ -5122,28 +5112,28 @@
       <c r="B92" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I92" t="s">
         <v>727</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K92" t="s">
         <v>721</v>
       </c>
-      <c r="N92" s="17"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -5152,28 +5142,28 @@
       <c r="B93" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I93" t="s">
         <v>717</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K93" t="s">
         <v>731</v>
       </c>
-      <c r="N93" s="17"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
@@ -5182,28 +5172,28 @@
       <c r="B94" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I94" t="s">
         <v>717</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J94" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K94" t="s">
         <v>731</v>
       </c>
-      <c r="N94" s="17"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
@@ -5212,23 +5202,23 @@
       <c r="B95" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H95" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N95" s="17"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
@@ -5237,23 +5227,23 @@
       <c r="B96" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I96" s="1"/>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N96" s="17"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
@@ -5262,23 +5252,23 @@
       <c r="B97" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I97" s="1"/>
-      <c r="J97" s="10" t="s">
+      <c r="J97" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N97" s="17"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
@@ -5287,23 +5277,23 @@
       <c r="B98" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I98" s="1"/>
-      <c r="J98" s="10" t="s">
+      <c r="J98" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N98" s="17"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
@@ -5312,26 +5302,26 @@
       <c r="B99" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="10" t="s">
+      <c r="J99" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K99" t="s">
         <v>731</v>
       </c>
-      <c r="N99" s="17"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
@@ -5340,26 +5330,26 @@
       <c r="B100" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="10" t="s">
+      <c r="J100" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K100" t="s">
         <v>731</v>
       </c>
-      <c r="N100" s="17"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
@@ -5368,26 +5358,26 @@
       <c r="B101" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="2" t="s">
         <v>647</v>
       </c>
       <c r="I101" s="1"/>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K101" t="s">
         <v>700</v>
       </c>
-      <c r="N101" s="17"/>
+      <c r="N101" s="2"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
@@ -5396,25 +5386,25 @@
       <c r="B102" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I102" t="s">
         <v>710</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N102" s="17"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
@@ -5423,25 +5413,25 @@
       <c r="B103" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="2" t="s">
         <v>664</v>
       </c>
       <c r="I103" t="s">
         <v>700</v>
       </c>
-      <c r="J103" s="10" t="s">
+      <c r="J103" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N103" s="17"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -5450,26 +5440,26 @@
       <c r="B104" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I104" s="1"/>
-      <c r="J104" s="10" t="s">
+      <c r="J104" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K104" t="s">
         <v>731</v>
       </c>
-      <c r="N104" s="17"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
@@ -5478,26 +5468,26 @@
       <c r="B105" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I105" s="1"/>
-      <c r="J105" s="10" t="s">
+      <c r="J105" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K105" t="s">
         <v>731</v>
       </c>
-      <c r="N105" s="17"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
@@ -5506,26 +5496,26 @@
       <c r="B106" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I106" s="1"/>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K106" t="s">
         <v>731</v>
       </c>
-      <c r="N106" s="17"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -5534,26 +5524,26 @@
       <c r="B107" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I107" s="1"/>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K107" t="s">
         <v>731</v>
       </c>
-      <c r="N107" s="17"/>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -5562,24 +5552,24 @@
       <c r="B108" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G108" s="1"/>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="2" t="s">
         <v>647</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K108" t="s">
         <v>721</v>
       </c>
-      <c r="N108" s="17"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -5588,24 +5578,24 @@
       <c r="B109" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="2" t="s">
         <v>644</v>
       </c>
       <c r="G109" s="1"/>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="2" t="s">
         <v>647</v>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K109" t="s">
         <v>721</v>
       </c>
-      <c r="N109" s="17"/>
+      <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
@@ -5614,26 +5604,26 @@
       <c r="B110" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G110" s="1"/>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I110" t="s">
         <v>717</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="2" t="s">
         <v>684</v>
       </c>
       <c r="K110" t="s">
         <v>700</v>
       </c>
-      <c r="N110" s="17"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
@@ -5642,25 +5632,25 @@
       <c r="B111" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="2" t="s">
         <v>684</v>
       </c>
       <c r="I111" t="s">
         <v>717</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N111" s="17"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -5669,23 +5659,23 @@
       <c r="B112" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="H112" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="10" t="s">
+      <c r="J112" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N112" s="17"/>
+      <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -5694,21 +5684,21 @@
       <c r="B113" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G113" s="1"/>
-      <c r="H113" s="8" t="s">
+      <c r="H113" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N113" s="17"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -5717,23 +5707,23 @@
       <c r="B114" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G114" s="1"/>
-      <c r="H114" s="8" t="s">
+      <c r="H114" s="2" t="s">
         <v>662</v>
       </c>
       <c r="I114" t="s">
         <v>729</v>
       </c>
-      <c r="J114" s="10" t="s">
+      <c r="J114" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="N114" s="17"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
@@ -5742,26 +5732,26 @@
       <c r="B115" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="10" t="s">
+      <c r="J115" s="2" t="s">
         <v>686</v>
       </c>
       <c r="K115" t="s">
         <v>694</v>
       </c>
-      <c r="N115" s="17"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -5770,28 +5760,28 @@
       <c r="B116" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="2" t="s">
         <v>662</v>
       </c>
       <c r="I116" t="s">
         <v>731</v>
       </c>
-      <c r="J116" s="10" t="s">
+      <c r="J116" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K116" t="s">
         <v>708</v>
       </c>
-      <c r="N116" s="17"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
@@ -5800,28 +5790,28 @@
       <c r="B117" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H117" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I117" t="s">
         <v>723</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J117" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K117" t="s">
         <v>727</v>
       </c>
-      <c r="N117" s="17"/>
+      <c r="N117" s="2"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
@@ -5830,28 +5820,28 @@
       <c r="B118" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H118" s="8" t="s">
+      <c r="H118" s="2" t="s">
         <v>662</v>
       </c>
       <c r="I118" t="s">
         <v>731</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J118" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K118" t="s">
         <v>708</v>
       </c>
-      <c r="N118" s="17"/>
+      <c r="N118" s="2"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -5860,28 +5850,28 @@
       <c r="B119" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I119" t="s">
         <v>723</v>
       </c>
-      <c r="J119" s="10" t="s">
+      <c r="J119" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K119" t="s">
         <v>727</v>
       </c>
-      <c r="N119" s="17"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -5890,28 +5880,28 @@
       <c r="B120" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G120" t="s">
         <v>723</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="H120" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I120" t="s">
         <v>710</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J120" s="2" t="s">
         <v>660</v>
       </c>
       <c r="K120" t="s">
         <v>706</v>
       </c>
-      <c r="N120" s="17"/>
+      <c r="N120" s="2"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -5920,28 +5910,28 @@
       <c r="B121" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G121" t="s">
         <v>723</v>
       </c>
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="2" t="s">
         <v>660</v>
       </c>
       <c r="I121" t="s">
         <v>694</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J121" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K121" t="s">
         <v>729</v>
       </c>
-      <c r="N121" s="17"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -5950,28 +5940,28 @@
       <c r="B122" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G122" t="s">
         <v>723</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="2" t="s">
         <v>680</v>
       </c>
       <c r="I122" t="s">
         <v>717</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="J122" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K122" t="s">
         <v>719</v>
       </c>
-      <c r="N122" s="17"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -5980,25 +5970,25 @@
       <c r="B123" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="2" t="s">
         <v>690</v>
       </c>
       <c r="G123" t="s">
         <v>721</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I123" t="s">
         <v>729</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J123" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N123" s="17"/>
+      <c r="N123" s="2"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
@@ -6007,26 +5997,26 @@
       <c r="B124" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G124" s="1"/>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I124" t="s">
         <v>731</v>
       </c>
-      <c r="J124" s="10" t="s">
+      <c r="J124" s="2" t="s">
         <v>662</v>
       </c>
       <c r="K124" t="s">
         <v>731</v>
       </c>
-      <c r="N124" s="17"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -6035,28 +6025,28 @@
       <c r="B125" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G125" t="s">
         <v>712</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="2" t="s">
         <v>662</v>
       </c>
       <c r="I125" t="s">
         <v>731</v>
       </c>
-      <c r="J125" s="10" t="s">
+      <c r="J125" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K125" t="s">
         <v>721</v>
       </c>
-      <c r="N125" s="17"/>
+      <c r="N125" s="2"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -6065,28 +6055,28 @@
       <c r="B126" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G126" t="s">
         <v>712</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H126" s="2" t="s">
         <v>662</v>
       </c>
       <c r="I126" t="s">
         <v>731</v>
       </c>
-      <c r="J126" s="10" t="s">
+      <c r="J126" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K126" t="s">
         <v>708</v>
       </c>
-      <c r="N126" s="17"/>
+      <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
@@ -6095,28 +6085,28 @@
       <c r="B127" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G127" t="s">
         <v>729</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I127" t="s">
         <v>723</v>
       </c>
-      <c r="J127" s="10" t="s">
+      <c r="J127" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K127" t="s">
         <v>727</v>
       </c>
-      <c r="N127" s="17"/>
+      <c r="N127" s="2"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -6125,28 +6115,28 @@
       <c r="B128" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G128" t="s">
         <v>729</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I128" t="s">
         <v>723</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K128" t="s">
         <v>727</v>
       </c>
-      <c r="N128" s="17"/>
+      <c r="N128" s="2"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
@@ -6155,26 +6145,26 @@
       <c r="B129" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G129" s="1"/>
-      <c r="H129" s="8" t="s">
+      <c r="H129" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I129" t="s">
         <v>704</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K129" t="s">
         <v>696</v>
       </c>
-      <c r="N129" s="17"/>
+      <c r="N129" s="2"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
@@ -6183,26 +6173,26 @@
       <c r="B130" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="D130" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G130" s="1"/>
-      <c r="H130" s="8" t="s">
+      <c r="H130" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I130" t="s">
         <v>704</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J130" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K130" t="s">
         <v>696</v>
       </c>
-      <c r="N130" s="17"/>
+      <c r="N130" s="2"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
@@ -6211,23 +6201,23 @@
       <c r="B131" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G131" t="s">
         <v>715</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I131" s="1"/>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N131" s="17"/>
+      <c r="N131" s="2"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
@@ -6236,23 +6226,23 @@
       <c r="B132" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G132" t="s">
         <v>715</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H132" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="10" t="s">
+      <c r="J132" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N132" s="17"/>
+      <c r="N132" s="2"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
@@ -6261,23 +6251,23 @@
       <c r="B133" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G133" t="s">
         <v>715</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="10" t="s">
+      <c r="J133" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N133" s="17"/>
+      <c r="N133" s="2"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
@@ -6286,23 +6276,23 @@
       <c r="B134" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G134" s="1"/>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I134" t="s">
         <v>715</v>
       </c>
-      <c r="J134" s="10" t="s">
+      <c r="J134" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N134" s="17"/>
+      <c r="N134" s="2"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
@@ -6311,23 +6301,23 @@
       <c r="B135" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F135" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G135" s="1"/>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I135" t="s">
         <v>715</v>
       </c>
-      <c r="J135" s="10" t="s">
+      <c r="J135" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N135" s="17"/>
+      <c r="N135" s="2"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -6336,23 +6326,23 @@
       <c r="B136" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F136" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G136" t="s">
         <v>715</v>
       </c>
-      <c r="H136" s="8" t="s">
+      <c r="H136" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I136" s="1"/>
-      <c r="J136" s="10" t="s">
+      <c r="J136" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N136" s="17"/>
+      <c r="N136" s="2"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
@@ -6361,28 +6351,28 @@
       <c r="B137" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G137" t="s">
         <v>694</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I137" t="s">
         <v>710</v>
       </c>
-      <c r="J137" s="10" t="s">
+      <c r="J137" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K137" t="s">
         <v>727</v>
       </c>
-      <c r="N137" s="17"/>
+      <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -6391,28 +6381,28 @@
       <c r="B138" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="F138" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G138" t="s">
         <v>694</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I138" t="s">
         <v>710</v>
       </c>
-      <c r="J138" s="10" t="s">
+      <c r="J138" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K138" t="s">
         <v>727</v>
       </c>
-      <c r="N138" s="17"/>
+      <c r="N138" s="2"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
@@ -6421,28 +6411,28 @@
       <c r="B139" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F139" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G139" t="s">
         <v>717</v>
       </c>
-      <c r="H139" s="8" t="s">
+      <c r="H139" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I139" t="s">
         <v>708</v>
       </c>
-      <c r="J139" s="10" t="s">
+      <c r="J139" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K139" t="s">
         <v>721</v>
       </c>
-      <c r="N139" s="17"/>
+      <c r="N139" s="2"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -6451,28 +6441,28 @@
       <c r="B140" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G140" t="s">
         <v>717</v>
       </c>
-      <c r="H140" s="8" t="s">
+      <c r="H140" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I140" t="s">
         <v>708</v>
       </c>
-      <c r="J140" s="10" t="s">
+      <c r="J140" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K140" t="s">
         <v>721</v>
       </c>
-      <c r="N140" s="17"/>
+      <c r="N140" s="2"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
@@ -6481,28 +6471,28 @@
       <c r="B141" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G141" t="s">
         <v>717</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I141" t="s">
         <v>708</v>
       </c>
-      <c r="J141" s="10" t="s">
+      <c r="J141" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K141" t="s">
         <v>721</v>
       </c>
-      <c r="N141" s="17"/>
+      <c r="N141" s="2"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
@@ -6511,28 +6501,28 @@
       <c r="B142" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G142" t="s">
         <v>717</v>
       </c>
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I142" t="s">
         <v>719</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K142" t="s">
         <v>708</v>
       </c>
-      <c r="N142" s="17"/>
+      <c r="N142" s="2"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
@@ -6541,28 +6531,28 @@
       <c r="B143" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D143" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G143" t="s">
         <v>717</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I143" t="s">
         <v>719</v>
       </c>
-      <c r="J143" s="10" t="s">
+      <c r="J143" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K143" t="s">
         <v>708</v>
       </c>
-      <c r="N143" s="17"/>
+      <c r="N143" s="2"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
@@ -6571,23 +6561,23 @@
       <c r="B144" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I144" t="s">
         <v>731</v>
       </c>
-      <c r="J144" s="10" t="s">
+      <c r="J144" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N144" s="17"/>
+      <c r="N144" s="2"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -6596,25 +6586,25 @@
       <c r="B145" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G145" t="s">
         <v>694</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I145" t="s">
         <v>723</v>
       </c>
-      <c r="J145" s="10" t="s">
+      <c r="J145" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N145" s="17"/>
+      <c r="N145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
@@ -6623,25 +6613,25 @@
       <c r="B146" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F146" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G146" t="s">
         <v>694</v>
       </c>
-      <c r="H146" s="8" t="s">
+      <c r="H146" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I146" t="s">
         <v>723</v>
       </c>
-      <c r="J146" s="10" t="s">
+      <c r="J146" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N146" s="17"/>
+      <c r="N146" s="2"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
@@ -6650,28 +6640,28 @@
       <c r="B147" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F147" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G147" t="s">
         <v>708</v>
       </c>
-      <c r="H147" s="8" t="s">
+      <c r="H147" s="2" t="s">
         <v>682</v>
       </c>
       <c r="I147" t="s">
         <v>731</v>
       </c>
-      <c r="J147" s="10" t="s">
+      <c r="J147" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K147" t="s">
         <v>719</v>
       </c>
-      <c r="N147" s="17"/>
+      <c r="N147" s="2"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
@@ -6680,28 +6670,28 @@
       <c r="B148" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="D148" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F148" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G148" t="s">
         <v>708</v>
       </c>
-      <c r="H148" s="8" t="s">
+      <c r="H148" s="2" t="s">
         <v>682</v>
       </c>
       <c r="I148" t="s">
         <v>731</v>
       </c>
-      <c r="J148" s="10" t="s">
+      <c r="J148" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K148" t="s">
         <v>719</v>
       </c>
-      <c r="N148" s="17"/>
+      <c r="N148" s="2"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
@@ -6710,26 +6700,26 @@
       <c r="B149" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F149" s="2" t="s">
         <v>662</v>
       </c>
       <c r="G149" t="s">
         <v>712</v>
       </c>
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I149" s="1"/>
-      <c r="J149" s="10" t="s">
+      <c r="J149" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K149" t="s">
         <v>704</v>
       </c>
-      <c r="N149" s="17"/>
+      <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
@@ -6738,24 +6728,24 @@
       <c r="B150" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G150" s="1"/>
-      <c r="H150" s="8" t="s">
+      <c r="H150" s="2" t="s">
         <v>647</v>
       </c>
       <c r="I150" s="1"/>
-      <c r="J150" s="10" t="s">
+      <c r="J150" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K150" t="s">
         <v>731</v>
       </c>
-      <c r="N150" s="17"/>
+      <c r="N150" s="2"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
@@ -6764,24 +6754,24 @@
       <c r="B151" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F151" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G151" s="1"/>
-      <c r="H151" s="8" t="s">
+      <c r="H151" s="2" t="s">
         <v>647</v>
       </c>
       <c r="I151" s="1"/>
-      <c r="J151" s="10" t="s">
+      <c r="J151" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K151" t="s">
         <v>731</v>
       </c>
-      <c r="N151" s="17"/>
+      <c r="N151" s="2"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
@@ -6790,28 +6780,28 @@
       <c r="B152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G152" t="s">
         <v>719</v>
       </c>
-      <c r="H152" s="8" t="s">
+      <c r="H152" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I152" t="s">
         <v>719</v>
       </c>
-      <c r="J152" s="10" t="s">
+      <c r="J152" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K152" t="s">
         <v>712</v>
       </c>
-      <c r="N152" s="17"/>
+      <c r="N152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
@@ -6820,28 +6810,28 @@
       <c r="B153" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G153" t="s">
         <v>719</v>
       </c>
-      <c r="H153" s="8" t="s">
+      <c r="H153" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I153" t="s">
         <v>719</v>
       </c>
-      <c r="J153" s="10" t="s">
+      <c r="J153" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K153" t="s">
         <v>712</v>
       </c>
-      <c r="N153" s="17"/>
+      <c r="N153" s="2"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
@@ -6850,26 +6840,26 @@
       <c r="B154" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F154" s="2" t="s">
         <v>662</v>
       </c>
       <c r="G154" t="s">
         <v>719</v>
       </c>
-      <c r="H154" s="8" t="s">
+      <c r="H154" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I154" s="1"/>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K154" t="s">
         <v>696</v>
       </c>
-      <c r="N154" s="17"/>
+      <c r="N154" s="2"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
@@ -6878,26 +6868,26 @@
       <c r="B155" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F155" s="2" t="s">
         <v>662</v>
       </c>
       <c r="G155" t="s">
         <v>719</v>
       </c>
-      <c r="H155" s="8" t="s">
+      <c r="H155" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I155" s="1"/>
-      <c r="J155" s="10" t="s">
+      <c r="J155" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K155" t="s">
         <v>696</v>
       </c>
-      <c r="N155" s="17"/>
+      <c r="N155" s="2"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
@@ -6906,26 +6896,26 @@
       <c r="B156" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F156" s="2" t="s">
         <v>662</v>
       </c>
       <c r="G156" t="s">
         <v>719</v>
       </c>
-      <c r="H156" s="8" t="s">
+      <c r="H156" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="10" t="s">
+      <c r="J156" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K156" t="s">
         <v>696</v>
       </c>
-      <c r="N156" s="17"/>
+      <c r="N156" s="2"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
@@ -6934,28 +6924,28 @@
       <c r="B157" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F157" s="2" t="s">
         <v>662</v>
       </c>
       <c r="G157" t="s">
         <v>719</v>
       </c>
-      <c r="H157" s="8" t="s">
+      <c r="H157" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I157" t="s">
         <v>719</v>
       </c>
-      <c r="J157" s="10" t="s">
+      <c r="J157" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K157" t="s">
         <v>696</v>
       </c>
-      <c r="N157" s="17"/>
+      <c r="N157" s="2"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
@@ -6964,26 +6954,26 @@
       <c r="B158" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F158" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G158" t="s">
         <v>694</v>
       </c>
-      <c r="H158" s="8" t="s">
+      <c r="H158" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I158" s="1"/>
-      <c r="J158" s="10" t="s">
+      <c r="J158" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K158" t="s">
         <v>719</v>
       </c>
-      <c r="N158" s="17"/>
+      <c r="N158" s="2"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
@@ -6992,26 +6982,26 @@
       <c r="B159" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F159" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G159" t="s">
         <v>694</v>
       </c>
-      <c r="H159" s="8" t="s">
+      <c r="H159" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="10" t="s">
+      <c r="J159" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K159" t="s">
         <v>719</v>
       </c>
-      <c r="N159" s="17"/>
+      <c r="N159" s="2"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
@@ -7020,26 +7010,26 @@
       <c r="B160" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F160" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G160" t="s">
         <v>719</v>
       </c>
-      <c r="H160" s="8" t="s">
+      <c r="H160" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="10" t="s">
+      <c r="J160" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K160" t="s">
         <v>731</v>
       </c>
-      <c r="N160" s="17"/>
+      <c r="N160" s="2"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
@@ -7048,26 +7038,26 @@
       <c r="B161" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D161" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G161" t="s">
         <v>694</v>
       </c>
-      <c r="H161" s="8" t="s">
+      <c r="H161" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I161" s="1"/>
-      <c r="J161" s="10" t="s">
+      <c r="J161" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K161" t="s">
         <v>719</v>
       </c>
-      <c r="N161" s="17"/>
+      <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
@@ -7076,23 +7066,23 @@
       <c r="B162" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="F162" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G162" t="s">
         <v>706</v>
       </c>
-      <c r="H162" s="8" t="s">
+      <c r="H162" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I162" s="1"/>
-      <c r="J162" s="10" t="s">
+      <c r="J162" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="N162" s="17"/>
+      <c r="N162" s="2"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
@@ -7101,23 +7091,23 @@
       <c r="B163" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G163" s="1"/>
-      <c r="H163" s="8" t="s">
+      <c r="H163" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I163" t="s">
         <v>708</v>
       </c>
-      <c r="J163" s="10" t="s">
+      <c r="J163" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N163" s="17"/>
+      <c r="N163" s="2"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -7126,23 +7116,23 @@
       <c r="B164" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F164" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G164" s="1"/>
-      <c r="H164" s="8" t="s">
+      <c r="H164" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I164" t="s">
         <v>719</v>
       </c>
-      <c r="J164" s="10" t="s">
+      <c r="J164" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N164" s="17"/>
+      <c r="N164" s="2"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
@@ -7151,26 +7141,26 @@
       <c r="B165" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G165" t="s">
         <v>729</v>
       </c>
-      <c r="H165" s="8" t="s">
+      <c r="H165" s="2" t="s">
         <v>646</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="10" t="s">
+      <c r="J165" s="2" t="s">
         <v>654</v>
       </c>
       <c r="K165" t="s">
         <v>717</v>
       </c>
-      <c r="N165" s="17"/>
+      <c r="N165" s="2"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
@@ -7179,21 +7169,21 @@
       <c r="B166" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G166" s="1"/>
-      <c r="H166" s="8" t="s">
+      <c r="H166" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I166" s="1"/>
-      <c r="J166" s="10" t="s">
+      <c r="J166" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N166" s="17"/>
+      <c r="N166" s="2"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
@@ -7202,26 +7192,26 @@
       <c r="B167" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="F167" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G167" t="s">
         <v>694</v>
       </c>
-      <c r="H167" s="8" t="s">
+      <c r="H167" s="2" t="s">
         <v>650</v>
       </c>
       <c r="I167" s="1"/>
-      <c r="J167" s="10" t="s">
+      <c r="J167" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K167" t="s">
         <v>719</v>
       </c>
-      <c r="N167" s="17"/>
+      <c r="N167" s="2"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -7230,25 +7220,25 @@
       <c r="B168" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F168" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G168" t="s">
         <v>717</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I168" t="s">
         <v>727</v>
       </c>
-      <c r="J168" s="10" t="s">
+      <c r="J168" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N168" s="17"/>
+      <c r="N168" s="2"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -7257,25 +7247,25 @@
       <c r="B169" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D169" s="4" t="s">
+      <c r="D169" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F169" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G169" t="s">
         <v>717</v>
       </c>
-      <c r="H169" s="8" t="s">
+      <c r="H169" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I169" t="s">
         <v>727</v>
       </c>
-      <c r="J169" s="10" t="s">
+      <c r="J169" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N169" s="17"/>
+      <c r="N169" s="2"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
@@ -7284,25 +7274,25 @@
       <c r="B170" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F170" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G170" t="s">
         <v>717</v>
       </c>
-      <c r="H170" s="8" t="s">
+      <c r="H170" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I170" t="s">
         <v>694</v>
       </c>
-      <c r="J170" s="10" t="s">
+      <c r="J170" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N170" s="17"/>
+      <c r="N170" s="2"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
@@ -7311,25 +7301,25 @@
       <c r="B171" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G171" t="s">
         <v>717</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="H171" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I171" t="s">
         <v>694</v>
       </c>
-      <c r="J171" s="10" t="s">
+      <c r="J171" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N171" s="17"/>
+      <c r="N171" s="2"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
@@ -7338,22 +7328,22 @@
       <c r="B172" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D172" s="4" t="s">
+      <c r="D172" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F172" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H172" s="8" t="s">
+      <c r="H172" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I172" t="s">
         <v>727</v>
       </c>
-      <c r="J172" s="10" t="s">
+      <c r="J172" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N172" s="17"/>
+      <c r="N172" s="2"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
@@ -7362,25 +7352,25 @@
       <c r="B173" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G173" t="s">
         <v>717</v>
       </c>
-      <c r="H173" s="8" t="s">
+      <c r="H173" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I173" t="s">
         <v>694</v>
       </c>
-      <c r="J173" s="10" t="s">
+      <c r="J173" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N173" s="17"/>
+      <c r="N173" s="2"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
@@ -7389,25 +7379,25 @@
       <c r="B174" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F174" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G174" t="s">
         <v>694</v>
       </c>
-      <c r="H174" s="8" t="s">
+      <c r="H174" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I174" t="s">
         <v>702</v>
       </c>
-      <c r="J174" s="10" t="s">
+      <c r="J174" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N174" s="17"/>
+      <c r="N174" s="2"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
@@ -7416,23 +7406,23 @@
       <c r="B175" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F175" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G175" s="1"/>
-      <c r="H175" s="8" t="s">
+      <c r="H175" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I175" t="s">
         <v>727</v>
       </c>
-      <c r="J175" s="10" t="s">
+      <c r="J175" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N175" s="17"/>
+      <c r="N175" s="2"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
@@ -7441,23 +7431,23 @@
       <c r="B176" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G176" s="1"/>
-      <c r="H176" s="8" t="s">
+      <c r="H176" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I176" t="s">
         <v>727</v>
       </c>
-      <c r="J176" s="10" t="s">
+      <c r="J176" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N176" s="17"/>
+      <c r="N176" s="2"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
@@ -7466,23 +7456,23 @@
       <c r="B177" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G177" s="1"/>
-      <c r="H177" s="8" t="s">
+      <c r="H177" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I177" t="s">
         <v>727</v>
       </c>
-      <c r="J177" s="10" t="s">
+      <c r="J177" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N177" s="17"/>
+      <c r="N177" s="2"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
@@ -7491,25 +7481,25 @@
       <c r="B178" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G178" t="s">
         <v>727</v>
       </c>
-      <c r="H178" s="8" t="s">
+      <c r="H178" s="2" t="s">
         <v>652</v>
       </c>
       <c r="I178" t="s">
         <v>717</v>
       </c>
-      <c r="J178" s="10" t="s">
+      <c r="J178" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N178" s="17"/>
+      <c r="N178" s="2"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
@@ -7518,23 +7508,23 @@
       <c r="B179" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F179" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G179" t="s">
         <v>700</v>
       </c>
-      <c r="H179" s="8" t="s">
+      <c r="H179" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I179" s="1"/>
-      <c r="J179" s="10" t="s">
+      <c r="J179" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N179" s="17"/>
+      <c r="N179" s="2"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
@@ -7543,23 +7533,23 @@
       <c r="B180" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D180" s="4" t="s">
+      <c r="D180" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="F180" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G180" t="s">
         <v>710</v>
       </c>
-      <c r="H180" s="8" t="s">
+      <c r="H180" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I180" s="1"/>
-      <c r="J180" s="10" t="s">
+      <c r="J180" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N180" s="17"/>
+      <c r="N180" s="2"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
@@ -7568,23 +7558,23 @@
       <c r="B181" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D181" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="F181" s="2" t="s">
         <v>652</v>
       </c>
       <c r="G181" t="s">
         <v>710</v>
       </c>
-      <c r="H181" s="8" t="s">
+      <c r="H181" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I181" s="1"/>
-      <c r="J181" s="10" t="s">
+      <c r="J181" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N181" s="17"/>
+      <c r="N181" s="2"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
@@ -7593,21 +7583,21 @@
       <c r="B182" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="D182" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="F182" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G182" s="1"/>
-      <c r="H182" s="8" t="s">
+      <c r="H182" s="2" t="s">
         <v>646</v>
       </c>
       <c r="I182" s="1"/>
-      <c r="J182" s="10" t="s">
+      <c r="J182" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N182" s="17"/>
+      <c r="N182" s="2"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
@@ -7616,21 +7606,21 @@
       <c r="B183" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D183" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G183" s="1"/>
-      <c r="H183" s="8" t="s">
+      <c r="H183" s="2" t="s">
         <v>646</v>
       </c>
       <c r="I183" s="1"/>
-      <c r="J183" s="10" t="s">
+      <c r="J183" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N183" s="17"/>
+      <c r="N183" s="2"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
@@ -7639,26 +7629,26 @@
       <c r="B184" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D184" s="4" t="s">
+      <c r="D184" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="F184" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G184" t="s">
         <v>700</v>
       </c>
-      <c r="H184" s="8" t="s">
+      <c r="H184" s="2" t="s">
         <v>645</v>
       </c>
       <c r="I184" s="1"/>
-      <c r="J184" s="10" t="s">
+      <c r="J184" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K184" t="s">
         <v>696</v>
       </c>
-      <c r="N184" s="17"/>
+      <c r="N184" s="2"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
@@ -7667,28 +7657,28 @@
       <c r="B185" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="D185" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F185" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G185" t="s">
         <v>700</v>
       </c>
-      <c r="H185" s="8" t="s">
+      <c r="H185" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I185" t="s">
         <v>696</v>
       </c>
-      <c r="J185" s="10" t="s">
+      <c r="J185" s="2" t="s">
         <v>672</v>
       </c>
       <c r="K185" t="s">
         <v>706</v>
       </c>
-      <c r="N185" s="17"/>
+      <c r="N185" s="2"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
@@ -7697,28 +7687,28 @@
       <c r="B186" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D186" s="4" t="s">
+      <c r="D186" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F186" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G186" t="s">
         <v>700</v>
       </c>
-      <c r="H186" s="8" t="s">
+      <c r="H186" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I186" t="s">
         <v>696</v>
       </c>
-      <c r="J186" s="10" t="s">
+      <c r="J186" s="2" t="s">
         <v>672</v>
       </c>
       <c r="K186" t="s">
         <v>706</v>
       </c>
-      <c r="N186" s="17"/>
+      <c r="N186" s="2"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
@@ -7727,24 +7717,24 @@
       <c r="B187" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D187" s="4" t="s">
+      <c r="D187" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="F187" s="2" t="s">
         <v>645</v>
       </c>
       <c r="G187" s="1"/>
-      <c r="H187" s="8" t="s">
+      <c r="H187" s="2" t="s">
         <v>644</v>
       </c>
       <c r="I187" s="1"/>
-      <c r="J187" s="10" t="s">
+      <c r="J187" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K187" t="s">
         <v>708</v>
       </c>
-      <c r="N187" s="17"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -7753,25 +7743,25 @@
       <c r="B188" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="D188" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="F188" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G188" t="s">
         <v>708</v>
       </c>
-      <c r="H188" s="8" t="s">
+      <c r="H188" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I188" t="s">
         <v>723</v>
       </c>
-      <c r="J188" s="10" t="s">
+      <c r="J188" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N188" s="17"/>
+      <c r="N188" s="2"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
@@ -7780,25 +7770,25 @@
       <c r="B189" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="F189" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G189" t="s">
         <v>708</v>
       </c>
-      <c r="H189" s="8" t="s">
+      <c r="H189" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I189" t="s">
         <v>723</v>
       </c>
-      <c r="J189" s="10" t="s">
+      <c r="J189" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N189" s="17"/>
+      <c r="N189" s="2"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
@@ -7807,25 +7797,25 @@
       <c r="B190" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D190" s="4" t="s">
+      <c r="D190" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="F190" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G190" t="s">
         <v>708</v>
       </c>
-      <c r="H190" s="8" t="s">
+      <c r="H190" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I190" t="s">
         <v>723</v>
       </c>
-      <c r="J190" s="10" t="s">
+      <c r="J190" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N190" s="17"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
@@ -7834,26 +7824,26 @@
       <c r="B191" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D191" s="4" t="s">
+      <c r="D191" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F191" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G191" t="s">
         <v>729</v>
       </c>
-      <c r="H191" s="8" t="s">
+      <c r="H191" s="2" t="s">
         <v>649</v>
       </c>
       <c r="I191" s="1"/>
-      <c r="J191" s="10" t="s">
+      <c r="J191" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K191" t="s">
         <v>710</v>
       </c>
-      <c r="N191" s="17"/>
+      <c r="N191" s="2"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
@@ -7862,28 +7852,28 @@
       <c r="B192" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D192" s="4" t="s">
+      <c r="D192" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F192" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G192" t="s">
         <v>710</v>
       </c>
-      <c r="H192" s="8" t="s">
+      <c r="H192" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I192" t="s">
         <v>694</v>
       </c>
-      <c r="J192" s="10" t="s">
+      <c r="J192" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K192" t="s">
         <v>717</v>
       </c>
-      <c r="N192" s="17"/>
+      <c r="N192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
@@ -7892,28 +7882,28 @@
       <c r="B193" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="D193" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F193" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G193" t="s">
         <v>710</v>
       </c>
-      <c r="H193" s="8" t="s">
+      <c r="H193" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I193" t="s">
         <v>694</v>
       </c>
-      <c r="J193" s="10" t="s">
+      <c r="J193" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K193" t="s">
         <v>717</v>
       </c>
-      <c r="N193" s="17"/>
+      <c r="N193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
@@ -7922,28 +7912,28 @@
       <c r="B194" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D194" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="F194" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G194" t="s">
         <v>710</v>
       </c>
-      <c r="H194" s="8" t="s">
+      <c r="H194" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I194" t="s">
         <v>694</v>
       </c>
-      <c r="J194" s="10" t="s">
+      <c r="J194" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K194" t="s">
         <v>700</v>
       </c>
-      <c r="N194" s="17"/>
+      <c r="N194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
@@ -7952,28 +7942,28 @@
       <c r="B195" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D195" s="4" t="s">
+      <c r="D195" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="F195" s="2" t="s">
         <v>676</v>
       </c>
       <c r="G195" t="s">
         <v>710</v>
       </c>
-      <c r="H195" s="8" t="s">
+      <c r="H195" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I195" t="s">
         <v>694</v>
       </c>
-      <c r="J195" s="10" t="s">
+      <c r="J195" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K195" t="s">
         <v>700</v>
       </c>
-      <c r="N195" s="17"/>
+      <c r="N195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
@@ -7982,28 +7972,28 @@
       <c r="B196" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D196" s="4" t="s">
+      <c r="D196" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="F196" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G196" t="s">
         <v>710</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="H196" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I196" t="s">
         <v>708</v>
       </c>
-      <c r="J196" s="10" t="s">
+      <c r="J196" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K196" t="s">
         <v>706</v>
       </c>
-      <c r="N196" s="17"/>
+      <c r="N196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
@@ -8012,28 +8002,28 @@
       <c r="B197" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="D197" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="F197" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G197" t="s">
         <v>710</v>
       </c>
-      <c r="H197" s="8" t="s">
+      <c r="H197" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I197" t="s">
         <v>708</v>
       </c>
-      <c r="J197" s="10" t="s">
+      <c r="J197" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K197" t="s">
         <v>706</v>
       </c>
-      <c r="N197" s="17"/>
+      <c r="N197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
@@ -8042,28 +8032,28 @@
       <c r="B198" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="F198" s="2" t="s">
         <v>670</v>
       </c>
       <c r="G198" t="s">
         <v>710</v>
       </c>
-      <c r="H198" s="8" t="s">
+      <c r="H198" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I198" t="s">
         <v>708</v>
       </c>
-      <c r="J198" s="10" t="s">
+      <c r="J198" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K198" t="s">
         <v>706</v>
       </c>
-      <c r="N198" s="17"/>
+      <c r="N198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
@@ -8072,28 +8062,28 @@
       <c r="B199" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="F199" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G199" t="s">
         <v>721</v>
       </c>
-      <c r="H199" s="8" t="s">
+      <c r="H199" s="2" t="s">
         <v>666</v>
       </c>
       <c r="I199" t="s">
         <v>723</v>
       </c>
-      <c r="J199" s="10" t="s">
+      <c r="J199" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K199" t="s">
         <v>706</v>
       </c>
-      <c r="N199" s="17"/>
+      <c r="N199" s="2"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
@@ -8102,25 +8092,25 @@
       <c r="B200" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D200" s="4" t="s">
+      <c r="D200" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="F200" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="H200" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I200" t="s">
         <v>694</v>
       </c>
-      <c r="J200" s="10" t="s">
+      <c r="J200" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K200" t="s">
         <v>727</v>
       </c>
-      <c r="N200" s="17"/>
+      <c r="N200" s="2"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
@@ -8129,25 +8119,25 @@
       <c r="B201" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="F201" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H201" s="8" t="s">
+      <c r="H201" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I201" t="s">
         <v>694</v>
       </c>
-      <c r="J201" s="10" t="s">
+      <c r="J201" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K201" t="s">
         <v>727</v>
       </c>
-      <c r="N201" s="17"/>
+      <c r="N201" s="2"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
@@ -8156,25 +8146,25 @@
       <c r="B202" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F202" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H202" s="8" t="s">
+      <c r="H202" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I202" t="s">
         <v>708</v>
       </c>
-      <c r="J202" s="10" t="s">
+      <c r="J202" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K202" t="s">
         <v>723</v>
       </c>
-      <c r="N202" s="17"/>
+      <c r="N202" s="2"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
@@ -8183,25 +8173,25 @@
       <c r="B203" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D203" s="4" t="s">
+      <c r="D203" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F203" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="H203" s="2" t="s">
         <v>674</v>
       </c>
       <c r="I203" t="s">
         <v>708</v>
       </c>
-      <c r="J203" s="10" t="s">
+      <c r="J203" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K203" t="s">
         <v>723</v>
       </c>
-      <c r="N203" s="17"/>
+      <c r="N203" s="2"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
@@ -8210,22 +8200,22 @@
       <c r="B204" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="D204" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F204" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H204" s="8" t="s">
+      <c r="H204" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J204" s="10" t="s">
+      <c r="J204" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K204" t="s">
         <v>725</v>
       </c>
-      <c r="N204" s="17"/>
+      <c r="N204" s="2"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -8234,22 +8224,22 @@
       <c r="B205" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="F205" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H205" s="8" t="s">
+      <c r="H205" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J205" s="10" t="s">
+      <c r="J205" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K205" t="s">
         <v>725</v>
       </c>
-      <c r="N205" s="17"/>
+      <c r="N205" s="2"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
@@ -8258,25 +8248,25 @@
       <c r="B206" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D206" s="4" t="s">
+      <c r="D206" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F206" s="2" t="s">
         <v>684</v>
       </c>
       <c r="G206" t="s">
         <v>723</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="H206" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="J206" s="10" t="s">
+      <c r="J206" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K206" t="s">
         <v>694</v>
       </c>
-      <c r="N206" s="17"/>
+      <c r="N206" s="2"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
@@ -8285,25 +8275,25 @@
       <c r="B207" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D207" s="4" t="s">
+      <c r="D207" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F207" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H207" s="8" t="s">
+      <c r="H207" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I207" t="s">
         <v>704</v>
       </c>
-      <c r="J207" s="10" t="s">
+      <c r="J207" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K207" t="s">
         <v>694</v>
       </c>
-      <c r="N207" s="17"/>
+      <c r="N207" s="2"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
@@ -8312,25 +8302,25 @@
       <c r="B208" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F208" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="H208" s="8" t="s">
+      <c r="H208" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I208" t="s">
         <v>704</v>
       </c>
-      <c r="J208" s="10" t="s">
+      <c r="J208" s="2" t="s">
         <v>690</v>
       </c>
       <c r="K208" t="s">
         <v>694</v>
       </c>
-      <c r="N208" s="17"/>
+      <c r="N208" s="2"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
@@ -8339,28 +8329,28 @@
       <c r="B209" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="F209" s="2" t="s">
         <v>690</v>
       </c>
       <c r="G209" t="s">
         <v>731</v>
       </c>
-      <c r="H209" s="8" t="s">
+      <c r="H209" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I209" t="s">
         <v>700</v>
       </c>
-      <c r="J209" s="10" t="s">
+      <c r="J209" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K209" t="s">
         <v>719</v>
       </c>
-      <c r="N209" s="17"/>
+      <c r="N209" s="2"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
@@ -8369,25 +8359,25 @@
       <c r="B210" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D210" s="4" t="s">
+      <c r="D210" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="6" t="s">
+      <c r="F210" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G210" t="s">
         <v>731</v>
       </c>
-      <c r="H210" s="8" t="s">
+      <c r="H210" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I210" t="s">
         <v>731</v>
       </c>
-      <c r="J210" s="10" t="s">
+      <c r="J210" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="N210" s="17"/>
+      <c r="N210" s="2"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
@@ -8396,25 +8386,25 @@
       <c r="B211" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D211" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="F211" s="6" t="s">
+      <c r="F211" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G211" t="s">
         <v>731</v>
       </c>
-      <c r="H211" s="8" t="s">
+      <c r="H211" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I211" t="s">
         <v>708</v>
       </c>
-      <c r="J211" s="10" t="s">
+      <c r="J211" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N211" s="17"/>
+      <c r="N211" s="2"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
@@ -8423,19 +8413,19 @@
       <c r="B212" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D212" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="6" t="s">
+      <c r="F212" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H212" s="8" t="s">
+      <c r="H212" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="J212" s="10" t="s">
+      <c r="J212" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="N212" s="17"/>
+      <c r="N212" s="2"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
@@ -8444,25 +8434,25 @@
       <c r="B213" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D213" s="4" t="s">
+      <c r="D213" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F213" s="6" t="s">
+      <c r="F213" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G213" t="s">
         <v>731</v>
       </c>
-      <c r="H213" s="8" t="s">
+      <c r="H213" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I213" t="s">
         <v>708</v>
       </c>
-      <c r="J213" s="10" t="s">
+      <c r="J213" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N213" s="17"/>
+      <c r="N213" s="2"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
@@ -8471,25 +8461,25 @@
       <c r="B214" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="D214" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="F214" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H214" s="8" t="s">
+      <c r="H214" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I214" t="s">
         <v>708</v>
       </c>
-      <c r="J214" s="10" t="s">
+      <c r="J214" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K214" t="s">
         <v>715</v>
       </c>
-      <c r="N214" s="17"/>
+      <c r="N214" s="2"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
@@ -8498,25 +8488,25 @@
       <c r="B215" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D215" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H215" s="8" t="s">
+      <c r="H215" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I215" t="s">
         <v>708</v>
       </c>
-      <c r="J215" s="10" t="s">
+      <c r="J215" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K215" t="s">
         <v>715</v>
       </c>
-      <c r="N215" s="17"/>
+      <c r="N215" s="2"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
@@ -8525,25 +8515,25 @@
       <c r="B216" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D216" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H216" s="8" t="s">
+      <c r="H216" s="2" t="s">
         <v>688</v>
       </c>
       <c r="I216" t="s">
         <v>708</v>
       </c>
-      <c r="J216" s="10" t="s">
+      <c r="J216" s="2" t="s">
         <v>656</v>
       </c>
       <c r="K216" t="s">
         <v>715</v>
       </c>
-      <c r="N216" s="17"/>
+      <c r="N216" s="2"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
@@ -8552,25 +8542,25 @@
       <c r="B217" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D217" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="F217" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G217" t="s">
         <v>731</v>
       </c>
-      <c r="H217" s="8" t="s">
+      <c r="H217" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I217" t="s">
         <v>721</v>
       </c>
-      <c r="J217" s="10" t="s">
+      <c r="J217" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N217" s="17"/>
+      <c r="N217" s="2"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
@@ -8579,25 +8569,25 @@
       <c r="B218" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D218" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F218" s="6" t="s">
+      <c r="F218" s="2" t="s">
         <v>658</v>
       </c>
       <c r="G218" t="s">
         <v>719</v>
       </c>
-      <c r="H218" s="8" t="s">
+      <c r="H218" s="2" t="s">
         <v>656</v>
       </c>
       <c r="I218" t="s">
         <v>721</v>
       </c>
-      <c r="J218" s="10" t="s">
+      <c r="J218" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="N218" s="17"/>
+      <c r="N218" s="2"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
@@ -8606,25 +8596,25 @@
       <c r="B219" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D219" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="F219" s="6" t="s">
+      <c r="F219" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H219" s="8" t="s">
+      <c r="H219" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I219" t="s">
         <v>698</v>
       </c>
-      <c r="J219" s="10" t="s">
+      <c r="J219" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K219" t="s">
         <v>731</v>
       </c>
-      <c r="N219" s="17"/>
+      <c r="N219" s="2"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
@@ -8633,25 +8623,25 @@
       <c r="B220" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="D220" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F220" s="6" t="s">
+      <c r="F220" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H220" s="8" t="s">
+      <c r="H220" s="2" t="s">
         <v>676</v>
       </c>
       <c r="I220" t="s">
         <v>698</v>
       </c>
-      <c r="J220" s="10" t="s">
+      <c r="J220" s="2" t="s">
         <v>668</v>
       </c>
       <c r="K220" t="s">
         <v>721</v>
       </c>
-      <c r="N220" s="17"/>
+      <c r="N220" s="2"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
@@ -8660,25 +8650,25 @@
       <c r="B221" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="D221" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="F221" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H221" s="8" t="s">
+      <c r="H221" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I221" t="s">
         <v>731</v>
       </c>
-      <c r="J221" s="10" t="s">
+      <c r="J221" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K221" t="s">
         <v>698</v>
       </c>
-      <c r="N221" s="17"/>
+      <c r="N221" s="2"/>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
@@ -8687,25 +8677,25 @@
       <c r="B222" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="D222" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F222" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H222" s="8" t="s">
+      <c r="H222" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I222" t="s">
         <v>731</v>
       </c>
-      <c r="J222" s="10" t="s">
+      <c r="J222" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K222" t="s">
         <v>698</v>
       </c>
-      <c r="N222" s="17"/>
+      <c r="N222" s="2"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
@@ -8714,25 +8704,25 @@
       <c r="B223" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D223" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F223" s="6" t="s">
+      <c r="F223" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G223" t="s">
         <v>717</v>
       </c>
-      <c r="H223" s="8" t="s">
+      <c r="H223" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J223" s="10" t="s">
+      <c r="J223" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K223" t="s">
         <v>721</v>
       </c>
-      <c r="N223" s="17"/>
+      <c r="N223" s="2"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
@@ -8741,25 +8731,25 @@
       <c r="B224" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D224" s="4" t="s">
+      <c r="D224" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F224" s="6" t="s">
+      <c r="F224" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G224" t="s">
         <v>717</v>
       </c>
-      <c r="H224" s="8" t="s">
+      <c r="H224" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J224" s="10" t="s">
+      <c r="J224" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K224" t="s">
         <v>721</v>
       </c>
-      <c r="N224" s="17"/>
+      <c r="N224" s="2"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
@@ -8768,25 +8758,25 @@
       <c r="B225" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="D225" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F225" s="6" t="s">
+      <c r="F225" s="2" t="s">
         <v>654</v>
       </c>
       <c r="G225" t="s">
         <v>717</v>
       </c>
-      <c r="H225" s="8" t="s">
+      <c r="H225" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J225" s="10" t="s">
+      <c r="J225" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K225" t="s">
         <v>721</v>
       </c>
-      <c r="N225" s="17"/>
+      <c r="N225" s="2"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
@@ -8795,25 +8785,25 @@
       <c r="B226" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D226" s="4" t="s">
+      <c r="D226" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F226" s="6" t="s">
+      <c r="F226" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H226" s="8" t="s">
+      <c r="H226" s="2" t="s">
         <v>658</v>
       </c>
       <c r="I226" t="s">
         <v>698</v>
       </c>
-      <c r="J226" s="10" t="s">
+      <c r="J226" s="2" t="s">
         <v>688</v>
       </c>
       <c r="K226" t="s">
         <v>719</v>
       </c>
-      <c r="N226" s="17"/>
+      <c r="N226" s="2"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
@@ -8822,22 +8812,22 @@
       <c r="B227" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D227" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="F227" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H227" s="8" t="s">
+      <c r="H227" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J227" s="10" t="s">
+      <c r="J227" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K227" t="s">
         <v>708</v>
       </c>
-      <c r="N227" s="17"/>
+      <c r="N227" s="2"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
@@ -8846,22 +8836,22 @@
       <c r="B228" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="D228" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F228" s="6" t="s">
+      <c r="F228" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="H228" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J228" s="10" t="s">
+      <c r="J228" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K228" t="s">
         <v>708</v>
       </c>
-      <c r="N228" s="17"/>
+      <c r="N228" s="2"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
@@ -8870,22 +8860,22 @@
       <c r="B229" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D229" s="4" t="s">
+      <c r="D229" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="F229" s="6" t="s">
+      <c r="F229" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="H229" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J229" s="10" t="s">
+      <c r="J229" s="2" t="s">
         <v>676</v>
       </c>
       <c r="K229" t="s">
         <v>708</v>
       </c>
-      <c r="N229" s="17"/>
+      <c r="N229" s="2"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
@@ -8894,25 +8884,25 @@
       <c r="B230" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="D230" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F230" s="6" t="s">
+      <c r="F230" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H230" s="8" t="s">
+      <c r="H230" s="2" t="s">
         <v>692</v>
       </c>
       <c r="I230" t="s">
         <v>704</v>
       </c>
-      <c r="J230" s="10" t="s">
+      <c r="J230" s="2" t="s">
         <v>670</v>
       </c>
       <c r="K230" t="s">
         <v>719</v>
       </c>
-      <c r="N230" s="17"/>
+      <c r="N230" s="2"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
@@ -8921,22 +8911,22 @@
       <c r="B231" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D231" s="4" t="s">
+      <c r="D231" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="F231" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G231" t="s">
         <v>700</v>
       </c>
-      <c r="H231" s="8" t="s">
+      <c r="H231" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="J231" s="10" t="s">
+      <c r="J231" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N231" s="17"/>
+      <c r="N231" s="2"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
@@ -8945,25 +8935,25 @@
       <c r="B232" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D232" s="4" t="s">
+      <c r="D232" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="F232" s="6" t="s">
+      <c r="F232" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H232" s="8" t="s">
+      <c r="H232" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I232" t="s">
         <v>700</v>
       </c>
-      <c r="J232" s="10" t="s">
+      <c r="J232" s="2" t="s">
         <v>666</v>
       </c>
       <c r="K232" t="s">
         <v>717</v>
       </c>
-      <c r="N232" s="17"/>
+      <c r="N232" s="2"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
@@ -8972,25 +8962,25 @@
       <c r="B233" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="D233" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F233" s="6" t="s">
+      <c r="F233" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H233" s="8" t="s">
+      <c r="H233" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I233" t="s">
         <v>723</v>
       </c>
-      <c r="J233" s="10" t="s">
+      <c r="J233" s="2" t="s">
         <v>674</v>
       </c>
       <c r="K233" t="s">
         <v>694</v>
       </c>
-      <c r="N233" s="17"/>
+      <c r="N233" s="2"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
@@ -8999,25 +8989,25 @@
       <c r="B234" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D234" s="4" t="s">
+      <c r="D234" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="F234" s="6" t="s">
+      <c r="F234" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I234" t="s">
         <v>717</v>
       </c>
-      <c r="J234" s="10" t="s">
+      <c r="J234" s="2" t="s">
         <v>658</v>
       </c>
       <c r="K234" t="s">
         <v>702</v>
       </c>
-      <c r="N234" s="17"/>
+      <c r="N234" s="2"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
@@ -9026,25 +9016,25 @@
       <c r="B235" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D235" s="4" t="s">
+      <c r="D235" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="F235" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G235" t="s">
         <v>731</v>
       </c>
-      <c r="H235" s="8" t="s">
+      <c r="H235" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I235" t="s">
         <v>698</v>
       </c>
-      <c r="J235" s="10" t="s">
+      <c r="J235" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N235" s="17"/>
+      <c r="N235" s="2"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
@@ -9053,25 +9043,25 @@
       <c r="B236" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D236" s="4" t="s">
+      <c r="D236" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F236" s="6" t="s">
+      <c r="F236" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G236" t="s">
         <v>731</v>
       </c>
-      <c r="H236" s="8" t="s">
+      <c r="H236" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I236" t="s">
         <v>698</v>
       </c>
-      <c r="J236" s="10" t="s">
+      <c r="J236" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N236" s="17"/>
+      <c r="N236" s="2"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
@@ -9080,25 +9070,25 @@
       <c r="B237" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D237" s="4" t="s">
+      <c r="D237" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F237" s="6" t="s">
+      <c r="F237" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G237" t="s">
         <v>731</v>
       </c>
-      <c r="H237" s="8" t="s">
+      <c r="H237" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I237" t="s">
         <v>698</v>
       </c>
-      <c r="J237" s="10" t="s">
+      <c r="J237" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N237" s="17"/>
+      <c r="N237" s="2"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
@@ -9107,25 +9097,25 @@
       <c r="B238" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="D238" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="F238" s="6" t="s">
+      <c r="F238" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G238" t="s">
         <v>721</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I238" t="s">
         <v>731</v>
       </c>
-      <c r="J238" s="10" t="s">
+      <c r="J238" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N238" s="17"/>
+      <c r="N238" s="2"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
@@ -9134,25 +9124,25 @@
       <c r="B239" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="D239" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F239" s="6" t="s">
+      <c r="F239" s="2" t="s">
         <v>668</v>
       </c>
       <c r="G239" t="s">
         <v>721</v>
       </c>
-      <c r="H239" s="8" t="s">
+      <c r="H239" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I239" t="s">
         <v>731</v>
       </c>
-      <c r="J239" s="10" t="s">
+      <c r="J239" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N239" s="17"/>
+      <c r="N239" s="2"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
@@ -9161,22 +9151,22 @@
       <c r="B240" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="D240" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F240" s="6" t="s">
+      <c r="F240" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I240" t="s">
         <v>708</v>
       </c>
-      <c r="J240" s="10" t="s">
+      <c r="J240" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="N240" s="17"/>
+      <c r="N240" s="2"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
@@ -9185,25 +9175,25 @@
       <c r="B241" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D241" s="4" t="s">
+      <c r="D241" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="F241" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H241" s="8" t="s">
+      <c r="H241" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I241" t="s">
         <v>717</v>
       </c>
-      <c r="J241" s="10" t="s">
+      <c r="J241" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K241" t="s">
         <v>717</v>
       </c>
-      <c r="N241" s="17"/>
+      <c r="N241" s="2"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
@@ -9212,25 +9202,25 @@
       <c r="B242" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D242" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F242" s="6" t="s">
+      <c r="F242" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I242" t="s">
         <v>717</v>
       </c>
-      <c r="J242" s="10" t="s">
+      <c r="J242" s="2" t="s">
         <v>678</v>
       </c>
       <c r="K242" t="s">
         <v>717</v>
       </c>
-      <c r="N242" s="17"/>
+      <c r="N242" s="2"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
@@ -9239,25 +9229,25 @@
       <c r="B243" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D243" s="4" t="s">
+      <c r="D243" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F243" s="6" t="s">
+      <c r="F243" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G243" t="s">
         <v>708</v>
       </c>
-      <c r="H243" s="8" t="s">
+      <c r="H243" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I243" t="s">
         <v>721</v>
       </c>
-      <c r="J243" s="10" t="s">
+      <c r="J243" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N243" s="17"/>
+      <c r="N243" s="2"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
@@ -9266,25 +9256,25 @@
       <c r="B244" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="D244" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F244" s="6" t="s">
+      <c r="F244" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G244" t="s">
         <v>708</v>
       </c>
-      <c r="H244" s="8" t="s">
+      <c r="H244" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I244" t="s">
         <v>721</v>
       </c>
-      <c r="J244" s="10" t="s">
+      <c r="J244" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N244" s="17"/>
+      <c r="N244" s="2"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
@@ -9293,25 +9283,25 @@
       <c r="B245" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D245" s="4" t="s">
+      <c r="D245" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="F245" s="6" t="s">
+      <c r="F245" s="2" t="s">
         <v>674</v>
       </c>
       <c r="G245" t="s">
         <v>708</v>
       </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="2" t="s">
         <v>670</v>
       </c>
       <c r="I245" t="s">
         <v>721</v>
       </c>
-      <c r="J245" s="10" t="s">
+      <c r="J245" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N245" s="17"/>
+      <c r="N245" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9323,8 +9313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAEB725-620D-4AC4-9C8E-C87D1079B231}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9347,16 +9337,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="A2" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2" s="4">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2">
@@ -9365,44 +9355,44 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="D3" s="16">
-        <v>20</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="A3" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="D4" s="16">
-        <v>8</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="D5" s="16">
-        <v>12</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G5">
@@ -9411,44 +9401,44 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="D6" s="16">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="A6" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>662</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="D7" s="16">
-        <v>26</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="A7" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="D8" s="16">
-        <v>12</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="A8" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8">
@@ -9457,576 +9447,576 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="A9" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="D10" s="15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="D11" s="15">
-        <v>16</v>
-      </c>
-      <c r="E11" s="17" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="D12" s="15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D22" s="2">
         <v>20</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D26" s="2">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D30" s="2">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D32" s="2">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D34" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D36" s="2">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D40" s="2">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D41" s="4">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" s="15">
-        <v>11</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="D15" s="15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D42" s="2">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D45" s="2">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D46" s="2">
         <v>8</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="D16" s="15">
-        <v>12</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D47" s="2">
         <v>10</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="D18" s="15">
-        <v>25</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="D19" s="15">
-        <v>8</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D20" s="15">
-        <v>18</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="D21" s="15">
-        <v>20</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="D23" s="15">
-        <v>20</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D49" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="D24" s="15">
-        <v>20</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="D25" s="15">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="D26" s="15">
-        <v>12</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="D27" s="15">
-        <v>15</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="D28" s="15">
-        <v>26</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="D29" s="15">
-        <v>10</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="D30" s="15">
-        <v>20</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="D31" s="15">
-        <v>18</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="D32" s="15">
-        <v>20</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="D33" s="15">
-        <v>8</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="D34" s="15">
-        <v>20</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="D35" s="15">
-        <v>20</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>719</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="D36" s="15">
-        <v>11</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="D37" s="15">
-        <v>8</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="D38" s="15">
-        <v>12</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="D39" s="15">
-        <v>10</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="D40" s="15">
-        <v>25</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="D41" s="15">
-        <v>8</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="D42" s="15">
-        <v>18</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="D43" s="15">
-        <v>15</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="D44" s="15">
-        <v>10</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="D45" s="15">
-        <v>15</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="D46" s="15">
-        <v>8</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="D47" s="15">
-        <v>10</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="D48" s="15">
-        <v>10</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="D49" s="15">
-        <v>15</v>
-      </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10039,7 +10029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E6B92E-848A-4A89-9973-6E5CB7EB804B}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
@@ -13914,4 +13904,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BCF5FB-1A0C-4F42-BB84-C85F10C4683E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K245"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>